--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Inspection-Search Engine" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Inspection-search" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -49,7 +49,7 @@
     <t>172.30.1.156</t>
   </si>
   <si>
-    <t>시스테OS</t>
+    <t>시스템OS</t>
   </si>
   <si>
     <t>Ubuntu 16.04.5 LTS</t>
@@ -145,13 +145,15 @@
   </si>
   <si>
     <t xml:space="preserve">Filesystem                                     Size   Used  Avail Capacity iused      ifree %iused  Mounted on
-/dev/disk1s1                                  466Gi   10Gi  296Gi     4%  488473 4881964407    0%   /
+/dev/disk1s1                                  466Gi   10Gi  293Gi     4%  488473 4881964407    0%   /
 devfs                                         191Ki  191Ki    0Bi   100%     662          0  100%   /dev
-/dev/disk1s2                                  466Gi  153Gi  296Gi    35% 2631517 4879821363    0%   /System/Volumes/Data
-/dev/disk1s5                                  466Gi  6.0Gi  296Gi     2%       6 4882452874    0%   /private/var/vm
+/dev/disk1s2                                  466Gi  155Gi  293Gi    35% 2635713 4879817167    0%   /System/Volumes/Data
+/dev/disk1s5                                  466Gi  7.0Gi  293Gi     3%       7 4882452873    0%   /private/var/vm
 map auto_home                                   0Bi    0Bi    0Bi   100%       0          0  100%   /System/Volumes/Data/home
 /Users/may-han/Downloads/Scroll Reverser.app  466Gi  149Gi  305Gi    33% 2566398 4879886482    0%   /private/var/folders/q2/prpmdzgj34x994jw8jr30c1m0000gn/T/AppTranslocation/3B93C2DD-1BD0-477F-8758-A523A06D08BA
-/dev/disk1s4                                  466Gi  504Mi  296Gi     1%      53 4882452827    0%   /Volumes/Recovery
+/dev/disk1s4                                  466Gi  504Mi  293Gi     1%      53 4882452827    0%   /Volumes/Recovery
+/Users/may-han/Downloads/FileZilla.app        466Gi  154Gi  294Gi    35% 2632127 4879820753    0%   /private/var/folders/q2/prpmdzgj34x994jw8jr30c1m0000gn/T/AppTranslocation/280B353D-4B2E-46F8-9DF3-2E9A6EECC63F
+/Users/may-han/Downloads/Atom.app             466Gi  154Gi  296Gi    35% 2628773 4879824107    0%   /private/var/folders/q2/prpmdzgj34x994jw8jr30c1m0000gn/T/AppTranslocation/C6BFCCBF-8456-4929-99E3-DB766C17B3DE
 </t>
   </si>
   <si>
